--- a/Remises/Remise 1/DPF.xlsx
+++ b/Remises/Remise 1/DPF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles-Olivier\Documents\Ulaval\Hiver 2016\Remises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles-Olivier\Documents\Ulaval\Hiver 2016\Remises\Remise 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Manipuler les trésors</t>
   </si>
@@ -215,7 +215,19 @@
     <t>Communiquer sans-fil un message secret avec un encodage Manchester</t>
   </si>
   <si>
-    <t>Obtenir une île cible du serveur des îles</t>
+    <t>Faire une requête valide pour l'île cible au serveur des îles en utilisant le message secret</t>
+  </si>
+  <si>
+    <t>Saisir et soulever un trésor à l'aide d'un électroaimant</t>
+  </si>
+  <si>
+    <t>Déposer le trésor sur l'île cible</t>
+  </si>
+  <si>
+    <t>Charger un condensateur vide jusqu'à une tension à ses bornes de 5V.</t>
+  </si>
+  <si>
+    <t>Alimenter un électroaimant uniquement à l'aide du condensateur</t>
   </si>
 </sst>
 </file>
@@ -239,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -375,81 +387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -458,97 +395,13 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,11 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,12 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -627,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,117 +753,117 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:AG29"/>
+  <dimension ref="C1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="120.90625" customWidth="1"/>
+    <col min="3" max="3" width="137.54296875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" customWidth="1"/>
     <col min="18" max="18" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="32" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="22" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="32" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="32" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="32" t="s">
+      <c r="X1" s="22"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="32" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="34"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="23"/>
     </row>
     <row r="2" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="35" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="18"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="18"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="35" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="18"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="13"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="35" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="35" t="s">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="35" t="s">
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-    </row>
-    <row r="3" spans="3:33" ht="331" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="26"/>
+    </row>
+    <row r="3" spans="3:33" ht="330.5" x14ac:dyDescent="0.35">
       <c r="D3" s="8" t="s">
         <v>56</v>
       </c>
@@ -1046,13 +888,13 @@
       <c r="K3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="16" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -1067,16 +909,16 @@
       <c r="R3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="16" t="s">
         <v>49</v>
       </c>
       <c r="W3" s="8" t="s">
@@ -1114,69 +956,69 @@
       </c>
     </row>
     <row r="4" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="26">
-        <v>5</v>
-      </c>
-      <c r="P4" s="27">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="28">
-        <v>5</v>
-      </c>
-      <c r="R4" s="26">
-        <v>5</v>
-      </c>
-      <c r="S4" s="28">
-        <v>5</v>
-      </c>
-      <c r="T4" s="26">
-        <v>5</v>
-      </c>
-      <c r="U4" s="27">
-        <v>5</v>
-      </c>
-      <c r="V4" s="28">
-        <v>5</v>
-      </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="27">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
+      <c r="P4" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>5</v>
+      </c>
+      <c r="R4" s="7">
+        <v>5</v>
+      </c>
+      <c r="S4" s="7">
+        <v>5</v>
+      </c>
+      <c r="T4" s="7">
+        <v>5</v>
+      </c>
+      <c r="U4" s="7">
+        <v>5</v>
+      </c>
+      <c r="V4" s="7">
+        <v>5</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7">
         <v>2</v>
       </c>
-      <c r="Y4" s="28">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="26">
+      <c r="Y4" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="7">
         <v>1</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AA4" s="7">
         <v>1</v>
       </c>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
     </row>
     <row r="5" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>5</v>
       </c>
       <c r="E5" s="7">
@@ -1188,604 +1030,828 @@
       <c r="G5" s="7">
         <v>5</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="10">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7">
         <v>4</v>
       </c>
       <c r="X5" s="7">
         <v>3</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="7">
         <v>4</v>
       </c>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="10"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="11"/>
+      <c r="AG5" s="7"/>
     </row>
     <row r="6" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
         <v>5</v>
       </c>
       <c r="P6" s="7">
         <v>5</v>
       </c>
-      <c r="Q6" s="11">
-        <v>5</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
+      <c r="Q6" s="7">
+        <v>5</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="10"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="10"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="10"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="11"/>
+      <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="10"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
       <c r="P7" s="7">
         <v>5</v>
       </c>
-      <c r="Q7" s="11">
-        <v>5</v>
-      </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
+      <c r="Q7" s="7">
+        <v>5</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="10"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="10"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="10"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="11"/>
+      <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="27" t="s">
         <v>63</v>
       </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C12" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C14" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>4</v>
+      </c>
+      <c r="P14" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>4</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7">
+        <v>3</v>
+      </c>
+      <c r="U14" s="7">
+        <v>3</v>
+      </c>
+      <c r="V14" s="7">
+        <v>3</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>5</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="10"/>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="10"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="10"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="10"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="7">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="11">
-        <v>5</v>
-      </c>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="11">
-        <v>5</v>
-      </c>
-      <c r="I19" s="10"/>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="10"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="10"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="10"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7">
+        <v>3</v>
+      </c>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="11"/>
+      <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>5</v>
-      </c>
-      <c r="H20" s="11">
-        <v>5</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="10"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="10"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="11"/>
+      <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C21" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="10">
-        <v>4</v>
-      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="11">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="7">
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>2</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2</v>
+      </c>
+      <c r="O22" s="7">
+        <v>5</v>
+      </c>
+      <c r="P22" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>5</v>
+      </c>
+      <c r="R22" s="7">
+        <v>4</v>
+      </c>
+      <c r="S22" s="7">
+        <v>4</v>
+      </c>
+      <c r="T22" s="7">
+        <v>4</v>
+      </c>
+      <c r="U22" s="7">
+        <v>4</v>
+      </c>
+      <c r="V22" s="7">
+        <v>4</v>
+      </c>
+      <c r="W22" s="7">
         <v>3</v>
       </c>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="11"/>
-    </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C22" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7">
-        <v>5</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="10"/>
       <c r="X22" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="10">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>5</v>
-      </c>
-      <c r="AC22" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="11"/>
+      <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10">
-        <v>2</v>
-      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="10"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="10">
-        <v>4</v>
-      </c>
-      <c r="P23" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>4</v>
-      </c>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="10">
-        <v>3</v>
-      </c>
-      <c r="U23" s="7">
-        <v>3</v>
-      </c>
-      <c r="V23" s="11">
-        <v>3</v>
-      </c>
-      <c r="W23" s="10"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
+        <v>5</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7">
+        <v>5</v>
+      </c>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="10"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="11"/>
+      <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="10"/>
+      <c r="C24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="10"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="10"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="10"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="10"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="7"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="10"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="7">
-        <v>5</v>
-      </c>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
-      <c r="AG24" s="11"/>
-    </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C25" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7">
-        <v>2</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
-        <v>2</v>
-      </c>
-      <c r="K25" s="11">
-        <v>2</v>
-      </c>
-      <c r="L25" s="10">
-        <v>2</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="11">
-        <v>2</v>
-      </c>
-      <c r="O25" s="10">
-        <v>5</v>
-      </c>
-      <c r="P25" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>5</v>
-      </c>
-      <c r="R25" s="10">
-        <v>4</v>
-      </c>
-      <c r="S25" s="11">
-        <v>4</v>
-      </c>
-      <c r="T25" s="10">
-        <v>4</v>
-      </c>
-      <c r="U25" s="7">
-        <v>4</v>
-      </c>
-      <c r="V25" s="11">
-        <v>4</v>
-      </c>
-      <c r="W25" s="10">
-        <v>3</v>
-      </c>
-      <c r="X25" s="7">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="11"/>
-    </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C26" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="10">
-        <v>5</v>
-      </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="11"/>
-    </row>
-    <row r="27" spans="3:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="12">
-        <v>4</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13">
-        <v>4</v>
-      </c>
-      <c r="G27" s="13">
-        <v>3</v>
-      </c>
-      <c r="H27" s="14">
-        <v>4</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="14"/>
-    </row>
-    <row r="29" spans="3:33" ht="119.5" x14ac:dyDescent="0.35">
-      <c r="D29" s="31" t="s">
+      <c r="AG24" s="7"/>
+    </row>
+    <row r="25" spans="3:33" ht="119.5" x14ac:dyDescent="0.35">
+      <c r="D25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="R1:S1"/>
@@ -1793,6 +1859,12 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Remises/Remise 1/DPF.xlsx
+++ b/Remises/Remise 1/DPF.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Manipuler les trésors</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Monter l'électronique du robot sur un PCB</t>
   </si>
   <si>
-    <t>sécuritaire aux éléments du système</t>
-  </si>
-  <si>
     <t>Envoyer une requête au serveur des îles</t>
   </si>
   <si>
@@ -225,6 +222,21 @@
   </si>
   <si>
     <t>éléments du système</t>
+  </si>
+  <si>
+    <t>de façon sécuritaire</t>
+  </si>
+  <si>
+    <t>Alimenter les éléments du système</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>tension min (V)</t>
+  </si>
+  <si>
+    <t>Rafraîchissage (Hz)</t>
   </si>
 </sst>
 </file>
@@ -427,6 +439,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,14 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,33 +748,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:AG26"/>
+  <dimension ref="C1:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="137.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" customWidth="1"/>
     <col min="18" max="18" width="10.453125" customWidth="1"/>
+    <col min="27" max="29" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="D1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="D1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="5"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
@@ -770,172 +783,189 @@
       <c r="N1" s="7"/>
       <c r="O1" s="5"/>
       <c r="P1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="11"/>
-      <c r="R1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="14" t="s">
+      <c r="R1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="24"/>
+      <c r="T1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="16"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="24"/>
     </row>
     <row r="2" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="D2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="D2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="8"/>
       <c r="M2" s="2"/>
       <c r="N2" s="9"/>
       <c r="O2" s="8"/>
       <c r="P2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="12"/>
-      <c r="R2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="19"/>
+      <c r="R2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="27"/>
       <c r="T2" s="8"/>
       <c r="U2" s="2"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+    </row>
+    <row r="3" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19"/>
-    </row>
-    <row r="3" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="D3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AF3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AG3" s="17" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="3:33" x14ac:dyDescent="0.35">
@@ -953,43 +983,19 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4">
-        <v>5</v>
-      </c>
-      <c r="P5" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>5</v>
-      </c>
-      <c r="R5" s="4">
-        <v>5</v>
-      </c>
-      <c r="S5" s="4">
-        <v>5</v>
-      </c>
-      <c r="T5" s="4">
-        <v>5</v>
-      </c>
-      <c r="U5" s="4">
-        <v>5</v>
-      </c>
-      <c r="V5" s="4">
-        <v>5</v>
-      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>1</v>
-      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -1001,21 +1007,11 @@
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1030,15 +1026,9 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="4">
-        <v>4</v>
-      </c>
-      <c r="X6" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>4</v>
-      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -1063,15 +1053,9 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4">
-        <v>5</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>5</v>
-      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1105,12 +1089,8 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>5</v>
-      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1129,8 +1109,8 @@
       <c r="AG8" s="4"/>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C9" s="20" t="s">
-        <v>58</v>
+      <c r="C9" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1164,8 +1144,8 @@
       <c r="AG9" s="4"/>
     </row>
     <row r="10" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C10" s="20" t="s">
-        <v>59</v>
+      <c r="C10" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1199,8 +1179,8 @@
       <c r="AG10" s="4"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C11" s="20" t="s">
-        <v>60</v>
+      <c r="C11" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1234,8 +1214,8 @@
       <c r="AG11" s="4"/>
     </row>
     <row r="12" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C12" s="20" t="s">
-        <v>63</v>
+      <c r="C12" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1269,8 +1249,8 @@
       <c r="AG12" s="4"/>
     </row>
     <row r="13" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C13" s="20" t="s">
-        <v>64</v>
+      <c r="C13" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1304,8 +1284,8 @@
       <c r="AG13" s="4"/>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C14" s="20" t="s">
-        <v>61</v>
+      <c r="C14" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1339,42 +1319,28 @@
       <c r="AG14" s="4"/>
     </row>
     <row r="15" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="C15" s="20" t="s">
-        <v>62</v>
+      <c r="C15" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>2</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4">
-        <v>4</v>
-      </c>
-      <c r="P15" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>4</v>
-      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="4">
-        <v>3</v>
-      </c>
-      <c r="U15" s="4">
-        <v>3</v>
-      </c>
-      <c r="V15" s="4">
-        <v>3</v>
-      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -1453,15 +1419,9 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
-      <c r="AE17" s="4">
-        <v>5</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>5</v>
-      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.35">
       <c r="C18" s="4" t="s">
@@ -1471,9 +1431,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1507,12 +1465,8 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1543,15 +1497,11 @@
       <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4">
-        <v>2</v>
-      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1574,9 +1524,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
-      <c r="AE20" s="4">
-        <v>3</v>
-      </c>
+      <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
     </row>
@@ -1585,9 +1533,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1606,22 +1552,12 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="4">
-        <v>5</v>
-      </c>
+      <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>1</v>
-      </c>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
@@ -1629,7 +1565,7 @@
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.35">
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1655,14 +1591,10 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4">
-        <v>5</v>
-      </c>
+      <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
-      <c r="AE22" s="4">
-        <v>5</v>
-      </c>
+      <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
@@ -1670,69 +1602,27 @@
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4">
-        <v>2</v>
-      </c>
-      <c r="K23" s="4">
-        <v>2</v>
-      </c>
-      <c r="L23" s="4">
-        <v>2</v>
-      </c>
-      <c r="M23" s="4">
-        <v>2</v>
-      </c>
-      <c r="N23" s="4">
-        <v>2</v>
-      </c>
-      <c r="O23" s="4">
-        <v>5</v>
-      </c>
-      <c r="P23" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>5</v>
-      </c>
-      <c r="R23" s="4">
-        <v>4</v>
-      </c>
-      <c r="S23" s="4">
-        <v>4</v>
-      </c>
-      <c r="T23" s="4">
-        <v>4</v>
-      </c>
-      <c r="U23" s="4">
-        <v>4</v>
-      </c>
-      <c r="V23" s="4">
-        <v>4</v>
-      </c>
-      <c r="W23" s="4">
-        <v>3</v>
-      </c>
-      <c r="X23" s="4">
-        <v>3</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
@@ -1758,9 +1648,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4">
-        <v>5</v>
-      </c>
+      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1772,9 +1660,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="4">
-        <v>5</v>
-      </c>
+      <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -1786,19 +1672,11 @@
       <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="4">
-        <v>4</v>
-      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4">
-        <v>3</v>
-      </c>
-      <c r="H25" s="4">
-        <v>4</v>
-      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1825,16 +1703,29 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
     </row>
-    <row r="26" spans="3:33" ht="119.5" x14ac:dyDescent="0.35">
-      <c r="D26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>31</v>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="119.5" x14ac:dyDescent="0.35">
+      <c r="C38" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="C45" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="R1:S1"/>
@@ -1842,12 +1733,6 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AC2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
